--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Штатний розклад Місюра випр..xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Штатний розклад Місюра випр..xls.xlsx
@@ -750,7 +750,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G15" sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Штатний розклад Місюра випр..xls.xlsx
+++ b/Фопи/ФОПи/ФОП Місюра/Кадри Місюра/Штатний розклад Місюра випр..xls.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>"ЗАТВЕРДЖУЮ"</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="A1:G15"/>
+      <selection activeCell="H9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
         <v>20459</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="10">
         <v>6300</v>
@@ -878,7 +878,7 @@
       </c>
       <c r="J11" s="2">
         <f>F11*E11</f>
-        <v>6300</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -912,14 +912,14 @@
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13">
-        <v>20459</v>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3231</v>
+      </c>
+      <c r="D13" s="15">
+        <v>24713</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -935,37 +935,10 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3231</v>
-      </c>
-      <c r="D14" s="15">
-        <v>24713</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3030</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.5</v>
-      </c>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J14" s="2">
-        <f>F14*E14</f>
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J15" s="2">
-        <f>SUM(J11:J14)</f>
-        <v>24480</v>
+        <f>SUM(J11:J13)</f>
+        <v>27750</v>
       </c>
     </row>
   </sheetData>
